--- a/experiment_schedule.xlsx
+++ b/experiment_schedule.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jianhong\Desktop\4yp-bo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E19DAE-47E1-4378-9D12-7262FA46398D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCF38E9-A5DD-4A57-B9A1-31E32AD9D046}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{41DDFABB-B25B-4005-8E22-DD9B44AB165F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{41DDFABB-B25B-4005-8E22-DD9B44AB165F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>Legend</t>
   </si>
@@ -94,13 +95,16 @@
   </si>
   <si>
     <t>Thomson</t>
+  </si>
+  <si>
+    <t>Re-run sequential - seems PI values are wrong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +116,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,10 +191,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -190,20 +203,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -519,7 +534,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,7 +563,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -560,14 +575,14 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -584,25 +599,34 @@
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="10" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -614,21 +638,21 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7" t="s">
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
@@ -662,10 +686,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="6"/>
@@ -685,21 +709,17 @@
       <c r="B18" s="6">
         <v>1</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="8"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12">
         <v>2</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14">
-        <v>2</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14">
-        <v>2</v>
-      </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -708,31 +728,19 @@
       <c r="B19" s="6">
         <v>4</v>
       </c>
-      <c r="C19" s="14">
-        <v>2</v>
-      </c>
-      <c r="D19" s="14">
-        <v>1</v>
-      </c>
-      <c r="E19" s="14">
-        <v>1</v>
-      </c>
-      <c r="F19" s="14">
-        <v>2</v>
-      </c>
-      <c r="G19" s="14">
-        <v>1</v>
-      </c>
-      <c r="H19" s="14">
-        <v>1</v>
-      </c>
-      <c r="I19" s="14">
-        <v>2</v>
-      </c>
-      <c r="J19" s="14">
-        <v>1</v>
-      </c>
-      <c r="K19" s="14">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="12">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="12">
         <v>1</v>
       </c>
     </row>
@@ -760,21 +768,21 @@
       <c r="B21" s="6">
         <v>1</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="12">
         <v>3</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12">
         <v>3</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14">
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12">
         <v>3</v>
       </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
@@ -783,31 +791,31 @@
       <c r="B22" s="6">
         <v>4</v>
       </c>
-      <c r="C22" s="14">
-        <v>4</v>
-      </c>
-      <c r="D22" s="14">
-        <v>4</v>
-      </c>
-      <c r="E22" s="14">
-        <v>4</v>
-      </c>
-      <c r="F22" s="14">
-        <v>4</v>
-      </c>
-      <c r="G22" s="14">
-        <v>4</v>
-      </c>
-      <c r="H22" s="14">
-        <v>4</v>
-      </c>
-      <c r="I22" s="14">
-        <v>4</v>
-      </c>
-      <c r="J22" s="14">
-        <v>4</v>
-      </c>
-      <c r="K22" s="14">
+      <c r="C22" s="12">
+        <v>4</v>
+      </c>
+      <c r="D22" s="12">
+        <v>4</v>
+      </c>
+      <c r="E22" s="12">
+        <v>4</v>
+      </c>
+      <c r="F22" s="12">
+        <v>4</v>
+      </c>
+      <c r="G22" s="12">
+        <v>4</v>
+      </c>
+      <c r="H22" s="12">
+        <v>4</v>
+      </c>
+      <c r="I22" s="12">
+        <v>4</v>
+      </c>
+      <c r="J22" s="12">
+        <v>4</v>
+      </c>
+      <c r="K22" s="12">
         <v>4</v>
       </c>
     </row>
@@ -836,14 +844,14 @@
         <v>1</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">

--- a/experiment_schedule.xlsx
+++ b/experiment_schedule.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jianhong\Desktop\4yp-bo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCF38E9-A5DD-4A57-B9A1-31E32AD9D046}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0593DDF8-23BA-4A83-885B-16840726FD35}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{41DDFABB-B25B-4005-8E22-DD9B44AB165F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{41DDFABB-B25B-4005-8E22-DD9B44AB165F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>Legend</t>
   </si>
@@ -70,9 +69,6 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>Incomplete</t>
-  </si>
-  <si>
     <t xml:space="preserve">GPyOpt </t>
   </si>
   <si>
@@ -97,7 +93,7 @@
     <t>Thomson</t>
   </si>
   <si>
-    <t>Re-run sequential - seems PI values are wrong</t>
+    <t>Running</t>
   </si>
 </sst>
 </file>
@@ -195,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -205,7 +201,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -531,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B6783D-23B4-4729-9882-0619BC92E249}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,14 +570,14 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -599,18 +594,10 @@
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
@@ -626,70 +613,70 @@
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="9" t="s">
-        <v>12</v>
+      <c r="D11" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15" t="s">
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="F16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="I16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="K16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="6"/>
@@ -704,188 +691,217 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12">
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="11">
         <v>2</v>
       </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="6">
-        <v>4</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="12">
-        <v>1</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="12">
-        <v>1</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="12">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="6">
-        <v>8</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="10">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21" s="6">
-        <v>1</v>
-      </c>
-      <c r="C21" s="12">
-        <v>3</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12">
-        <v>3</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12">
-        <v>3</v>
-      </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="6">
-        <v>4</v>
-      </c>
-      <c r="C22" s="12">
-        <v>4</v>
-      </c>
-      <c r="D22" s="12">
-        <v>4</v>
-      </c>
-      <c r="E22" s="12">
-        <v>4</v>
-      </c>
-      <c r="F22" s="12">
-        <v>4</v>
-      </c>
-      <c r="G22" s="12">
-        <v>4</v>
-      </c>
-      <c r="H22" s="12">
-        <v>4</v>
-      </c>
-      <c r="I22" s="12">
-        <v>4</v>
-      </c>
-      <c r="J22" s="12">
-        <v>4</v>
-      </c>
-      <c r="K22" s="12">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C22" s="10">
+        <v>3</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10">
+        <v>3</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10">
+        <v>3</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="6">
-        <v>8</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="C23" s="10">
+        <v>4</v>
+      </c>
+      <c r="D23" s="10">
+        <v>4</v>
+      </c>
+      <c r="E23" s="10">
+        <v>4</v>
+      </c>
+      <c r="F23" s="10">
+        <v>4</v>
+      </c>
+      <c r="G23" s="10">
+        <v>4</v>
+      </c>
+      <c r="H23" s="10">
+        <v>4</v>
+      </c>
+      <c r="I23" s="10">
+        <v>4</v>
+      </c>
+      <c r="J23" s="10">
+        <v>4</v>
+      </c>
+      <c r="K23" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24" s="6">
-        <v>1</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="6">
+        <v>8</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
